--- a/Hotel.xlsx
+++ b/Hotel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gilch\Desktop\Dev Stuff\Hotel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FDEB11-05B6-462C-8CC7-6D7C5E144F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF20FFC-F7CC-4034-9867-E53CEAADAA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D62690F-D6D4-4B06-A157-2D41C267F4CA}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="110">
   <si>
     <t>Hotel</t>
   </si>
@@ -79,9 +79,6 @@
     <t>Last Name</t>
   </si>
   <si>
-    <t>Reserved</t>
-  </si>
-  <si>
     <t>Table :Guests</t>
   </si>
   <si>
@@ -109,9 +106,6 @@
     <t>Reseveration id</t>
   </si>
   <si>
-    <t>Roomid</t>
-  </si>
-  <si>
     <t>Reservation id</t>
   </si>
   <si>
@@ -226,21 +220,12 @@
     <t>`</t>
   </si>
   <si>
-    <t>People</t>
-  </si>
-  <si>
     <t>Room_Type</t>
   </si>
   <si>
-    <t>Pkage_Details</t>
-  </si>
-  <si>
     <t>Cost_Per_Night</t>
   </si>
   <si>
-    <t>Tourism</t>
-  </si>
-  <si>
     <t>Guest_ID</t>
   </si>
   <si>
@@ -278,9 +263,6 @@
   </si>
   <si>
     <t>fee if u want</t>
-  </si>
-  <si>
-    <t>Should have id if occupied</t>
   </si>
   <si>
     <t>0-561202794</t>
@@ -428,6 +410,24 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>Pk_Code</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Package_Type</t>
+  </si>
+  <si>
+    <t>Tourism_Fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Reservation_ID</t>
+  </si>
+  <si>
+    <t>Phone_Number</t>
   </si>
 </sst>
 </file>
@@ -933,16 +933,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{889E6D78-F85D-4EA3-8D28-8527B88D0B3A}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:L30"/>
+  <dimension ref="A2:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30:J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20" style="1"/>
+    <col min="2" max="2" width="46.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="40.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="28" style="1" customWidth="1"/>
     <col min="5" max="5" width="31.5703125" style="1" customWidth="1"/>
@@ -968,7 +968,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>4</v>
@@ -977,24 +977,24 @@
         <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -1011,7 +1011,7 @@
         <v>8</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -1027,20 +1027,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="11" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>11</v>
@@ -1049,245 +1044,239 @@
         <v>12</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G13" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G14" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="1" t="s">
+    </row>
+    <row r="20" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="B20" s="11" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="1" t="s">
+      <c r="E27" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B30" s="1" t="s">
+      <c r="I30" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1299,122 +1288,371 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1B0656-EFA8-4F9F-96C1-BC413AE34369}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.42578125" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="26.42578125" style="1"/>
-    <col min="4" max="4" width="53" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="26.42578125" style="1"/>
+    <col min="4" max="4" width="60.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="49.85546875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="26.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>101</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
+      <c r="B2" s="1">
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>102</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
+      <c r="B3" s="1">
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>103</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
+      <c r="B4" s="1">
+        <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>104</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
+      <c r="B5" s="1">
+        <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
+        <v>105</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>106</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>107</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>108</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>201</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>202</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>203</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>204</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>72</v>
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>205</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>206</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>207</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>208</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>301</v>
+      </c>
+      <c r="B18" s="1">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>302</v>
+      </c>
+      <c r="B19" s="1">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>303</v>
+      </c>
+      <c r="B20" s="1">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>304</v>
+      </c>
+      <c r="B21" s="1">
+        <v>3</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>305</v>
+      </c>
+      <c r="B22" s="1">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>306</v>
+      </c>
+      <c r="B23" s="1">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>307</v>
+      </c>
+      <c r="B24" s="1">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>308</v>
+      </c>
+      <c r="B25" s="1">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1451,64 +1689,64 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J3" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J4" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1522,7 +1760,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E7" s="13">
         <v>44754</v>
@@ -1540,7 +1778,7 @@
         <v>839</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1554,7 +1792,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E8" s="13">
         <v>44744</v>
@@ -1572,7 +1810,7 @@
         <v>463</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1586,7 +1824,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E9" s="13">
         <v>44848</v>
@@ -1604,7 +1842,7 @@
         <v>794</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1618,7 +1856,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E10" s="13">
         <v>44925</v>
@@ -1636,7 +1874,7 @@
         <v>632</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1650,7 +1888,7 @@
         <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E11" s="13">
         <v>44741</v>
@@ -1668,7 +1906,7 @@
         <v>104</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1701,34 +1939,34 @@
   <sheetData>
     <row r="1" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="I1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1739,13 +1977,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G2" s="8">
         <v>200</v>
@@ -1762,13 +2000,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G3" s="8">
         <v>200</v>
@@ -1785,13 +2023,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G4" s="8">
         <v>200</v>
@@ -1808,13 +2046,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="G5" s="8">
         <v>400</v>
@@ -1831,13 +2069,13 @@
         <v>2</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G6" s="8">
         <v>400</v>
@@ -1854,13 +2092,13 @@
         <v>2</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G7" s="8">
         <v>400</v>
@@ -1877,13 +2115,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>43</v>
       </c>
       <c r="G8" s="8">
         <v>800</v>
@@ -1900,13 +2138,13 @@
         <v>4</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G9" s="8">
         <v>800</v>
@@ -1923,13 +2161,13 @@
         <v>4</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="G10" s="8">
         <v>800</v>
@@ -1946,13 +2184,13 @@
         <v>6</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G11" s="9">
         <v>1200</v>
@@ -1969,13 +2207,13 @@
         <v>6</v>
       </c>
       <c r="D12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="F12" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G12" s="9">
         <v>1200</v>
@@ -1992,13 +2230,13 @@
         <v>6</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G13" s="9">
         <v>1200</v>
@@ -2023,7 +2261,7 @@
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>

--- a/Hotel.xlsx
+++ b/Hotel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gilch\Desktop\Dev Stuff\Hotel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF20FFC-F7CC-4034-9867-E53CEAADAA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBB2144-7D50-4B91-B9AE-6277FB32CA3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D62690F-D6D4-4B06-A157-2D41C267F4CA}"/>
+    <workbookView xWindow="1815" yWindow="1815" windowWidth="24765" windowHeight="11385" xr2:uid="{4D62690F-D6D4-4B06-A157-2D41C267F4CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="109">
   <si>
     <t>Hotel</t>
   </si>
@@ -374,9 +374,6 @@
   </si>
   <si>
     <t>char(10)</t>
-  </si>
-  <si>
-    <t>Boolean</t>
   </si>
   <si>
     <t xml:space="preserve"> varchar</t>
@@ -933,10 +930,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{889E6D78-F85D-4EA3-8D28-8527B88D0B3A}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:K30"/>
+  <dimension ref="A2:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30:J30"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1058,7 +1055,7 @@
         <v>88</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>89</v>
@@ -1072,12 +1069,12 @@
     </row>
     <row r="13" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G13" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G14" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -1100,12 +1097,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>62</v>
@@ -1114,7 +1111,7 @@
         <v>58</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>16</v>
@@ -1126,16 +1123,13 @@
         <v>87</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K20" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>88</v>
       </c>
@@ -1158,16 +1152,13 @@
         <v>88</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -1187,7 +1178,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>88</v>
       </c>
@@ -1204,30 +1195,30 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>60</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>88</v>
       </c>
@@ -1247,36 +1238,36 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="C30" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/Hotel.xlsx
+++ b/Hotel.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gilch\Desktop\Dev Stuff\Hotel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBB2144-7D50-4B91-B9AE-6277FB32CA3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2693D4-2B14-421E-8EF1-3E07A56E2543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="1815" windowWidth="24765" windowHeight="11385" xr2:uid="{4D62690F-D6D4-4B06-A157-2D41C267F4CA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4D62690F-D6D4-4B06-A157-2D41C267F4CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="Rooms" sheetId="3" r:id="rId2"/>
-    <sheet name="Reservations" sheetId="6" r:id="rId3"/>
-    <sheet name="Packages" sheetId="2" r:id="rId4"/>
+    <sheet name="Guests" sheetId="9" r:id="rId2"/>
+    <sheet name="Feedback" sheetId="8" r:id="rId3"/>
+    <sheet name="Rooms" sheetId="3" r:id="rId4"/>
+    <sheet name="Reservations" sheetId="6" r:id="rId5"/>
+    <sheet name="Packages" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="284">
   <si>
     <t>Hotel</t>
   </si>
@@ -136,90 +138,12 @@
     <t>Phone Number</t>
   </si>
   <si>
-    <t>2000 DHS</t>
-  </si>
-  <si>
-    <t>FULL BOARD</t>
-  </si>
-  <si>
-    <t>FAMILY SUITE</t>
-  </si>
-  <si>
-    <t>1500 DHS</t>
-  </si>
-  <si>
-    <t>BED AND BREAKFAST</t>
-  </si>
-  <si>
-    <t>1350 DHS</t>
-  </si>
-  <si>
-    <t>ROOM ONLY</t>
-  </si>
-  <si>
-    <t>SINGLE SUITE</t>
-  </si>
-  <si>
-    <t>1100 DHS</t>
-  </si>
-  <si>
-    <t>950 DHS</t>
-  </si>
-  <si>
-    <t>DELUXE</t>
-  </si>
-  <si>
-    <t>1200 DHS</t>
-  </si>
-  <si>
-    <t>800 DHS</t>
-  </si>
-  <si>
-    <t>STANDARD</t>
-  </si>
-  <si>
-    <t>650 DHS</t>
-  </si>
-  <si>
-    <t>TOURISM</t>
-  </si>
-  <si>
-    <t>Column3</t>
-  </si>
-  <si>
-    <t>Column2</t>
-  </si>
-  <si>
-    <t>Column1</t>
-  </si>
-  <si>
-    <t>COST FOR ROOM PER NIGHT</t>
-  </si>
-  <si>
-    <t>PACKAGE DETAILS</t>
-  </si>
-  <si>
-    <t>ROOM TYPE</t>
-  </si>
-  <si>
-    <t>NUMBER OF PEOPLE</t>
-  </si>
-  <si>
-    <t>PACKAGESRNO</t>
-  </si>
-  <si>
-    <t>TABLE : PACKAGES</t>
-  </si>
-  <si>
     <t>Table: Packages</t>
   </si>
   <si>
     <t>PkCode</t>
   </si>
   <si>
-    <t>`</t>
-  </si>
-  <si>
     <t>Room_Type</t>
   </si>
   <si>
@@ -229,9 +153,6 @@
     <t>Guest_ID</t>
   </si>
   <si>
-    <t>CheckedIn</t>
-  </si>
-  <si>
     <t>Standard</t>
   </si>
   <si>
@@ -244,123 +165,9 @@
     <t>Family Suite</t>
   </si>
   <si>
-    <t>True/False</t>
-  </si>
-  <si>
-    <t>5 digit int</t>
-  </si>
-  <si>
-    <t>056xxxxxxxx</t>
-  </si>
-  <si>
-    <t>yyyy-mm-dd</t>
-  </si>
-  <si>
-    <t>depending on pkcode</t>
-  </si>
-  <si>
-    <t>plus   add tourism</t>
-  </si>
-  <si>
-    <t>fee if u want</t>
-  </si>
-  <si>
-    <t>0-561202794</t>
-  </si>
-  <si>
-    <r>
-      <t>(650 * 3 )+200=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Source Sans Pro"/>
-        <family val="2"/>
-      </rPr>
-      <t>2150</t>
-    </r>
-  </si>
-  <si>
-    <t>0-569312734</t>
-  </si>
-  <si>
-    <r>
-      <t>(1350 * 2)+400=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Source Sans Pro"/>
-        <family val="2"/>
-      </rPr>
-      <t>3100</t>
-    </r>
-  </si>
-  <si>
-    <t>0-564628228</t>
-  </si>
-  <si>
-    <r>
-      <t>(800 * 4)+400=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Source Sans Pro"/>
-        <family val="2"/>
-      </rPr>
-      <t>3600</t>
-    </r>
-  </si>
-  <si>
-    <t>0-562323432</t>
-  </si>
-  <si>
-    <r>
-      <t>(2000 * 4)+1200=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Source Sans Pro"/>
-        <family val="2"/>
-      </rPr>
-      <t>9200</t>
-    </r>
-  </si>
-  <si>
-    <t>0-561249248</t>
-  </si>
-  <si>
-    <r>
-      <t>(1500 * 8)+1200=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Source Sans Pro"/>
-        <family val="2"/>
-      </rPr>
-      <t>13200</t>
-    </r>
-  </si>
-  <si>
     <t>Floor</t>
   </si>
   <si>
-    <t>7 digit int starting with 1</t>
-  </si>
-  <si>
     <t>Nights</t>
   </si>
   <si>
@@ -425,13 +232,673 @@
   </si>
   <si>
     <t>Phone_Number</t>
+  </si>
+  <si>
+    <t>Yuki</t>
+  </si>
+  <si>
+    <t>Yamazaki</t>
+  </si>
+  <si>
+    <t>"2022-03-20"</t>
+  </si>
+  <si>
+    <t>" 2022-05-31"</t>
+  </si>
+  <si>
+    <t>The food wasn't upto expectations</t>
+  </si>
+  <si>
+    <t>"0524345211"</t>
+  </si>
+  <si>
+    <t>"2022-09-21"</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>"0567681598"</t>
+  </si>
+  <si>
+    <t>"2022-07-23"</t>
+  </si>
+  <si>
+    <t>"2022-09-02"</t>
+  </si>
+  <si>
+    <t>"2022-07-31"</t>
+  </si>
+  <si>
+    <t>"0507313342"</t>
+  </si>
+  <si>
+    <t>"2022-08-20"</t>
+  </si>
+  <si>
+    <t>"2022-08-30"</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Cross</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
+    <t>Soders</t>
+  </si>
+  <si>
+    <t>Gilchrist</t>
+  </si>
+  <si>
+    <t>Tavares</t>
+  </si>
+  <si>
+    <t>Marci</t>
+  </si>
+  <si>
+    <t>Kountz</t>
+  </si>
+  <si>
+    <t>0556723677</t>
+  </si>
+  <si>
+    <t>"2022-08-01"</t>
+  </si>
+  <si>
+    <t>"2022-08-28"</t>
+  </si>
+  <si>
+    <t>Tyler</t>
+  </si>
+  <si>
+    <t>Perry</t>
+  </si>
+  <si>
+    <t>0507009604</t>
+  </si>
+  <si>
+    <t>"2022-02-22"</t>
+  </si>
+  <si>
+    <t>"2022-03-12"</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
+    <t>Cochran</t>
+  </si>
+  <si>
+    <t>0563284362</t>
+  </si>
+  <si>
+    <t>"2022-07-27"</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Berry</t>
+  </si>
+  <si>
+    <t>0503585065</t>
+  </si>
+  <si>
+    <t>"2022-02-21"</t>
+  </si>
+  <si>
+    <t>"2022-03-09"</t>
+  </si>
+  <si>
+    <t>Randal</t>
+  </si>
+  <si>
+    <t>Bartz</t>
+  </si>
+  <si>
+    <t>0552638000</t>
+  </si>
+  <si>
+    <t>"2022-04-11"</t>
+  </si>
+  <si>
+    <t>"2022-05-29"</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>Easterling</t>
+  </si>
+  <si>
+    <t>0556084338</t>
+  </si>
+  <si>
+    <t>"2022-12-05"</t>
+  </si>
+  <si>
+    <t>"2022-12-24"</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>Clark</t>
+  </si>
+  <si>
+    <t>0523352498</t>
+  </si>
+  <si>
+    <t>"2022-02-02"</t>
+  </si>
+  <si>
+    <t>Kathleen</t>
+  </si>
+  <si>
+    <t>Mankin</t>
+  </si>
+  <si>
+    <t>0564412046</t>
+  </si>
+  <si>
+    <t>"2022-10-23"</t>
+  </si>
+  <si>
+    <t>"2022-12-02"</t>
+  </si>
+  <si>
+    <t>Ty</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>0563672364</t>
+  </si>
+  <si>
+    <t>"2022-09-14"</t>
+  </si>
+  <si>
+    <t>Mary</t>
+  </si>
+  <si>
+    <t>Jackson</t>
+  </si>
+  <si>
+    <t>0524508702</t>
+  </si>
+  <si>
+    <t>"2022-03-31"</t>
+  </si>
+  <si>
+    <t>"2022-05-12"</t>
+  </si>
+  <si>
+    <t>Horace</t>
+  </si>
+  <si>
+    <t>Harty</t>
+  </si>
+  <si>
+    <t>0522452185</t>
+  </si>
+  <si>
+    <t>"2022-03-17"</t>
+  </si>
+  <si>
+    <t>"2022-04-13"</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Thurmer</t>
+  </si>
+  <si>
+    <t>0556606060</t>
+  </si>
+  <si>
+    <t>"2022-09-09"</t>
+  </si>
+  <si>
+    <t>"2022-09-29"</t>
+  </si>
+  <si>
+    <t>Michelle</t>
+  </si>
+  <si>
+    <t>Diller</t>
+  </si>
+  <si>
+    <t>0561747201</t>
+  </si>
+  <si>
+    <t>"2022-08-22"</t>
+  </si>
+  <si>
+    <t>"2022-09-18"</t>
+  </si>
+  <si>
+    <t>Wilenkin</t>
+  </si>
+  <si>
+    <t>0561204544</t>
+  </si>
+  <si>
+    <t>"2022-01-01"</t>
+  </si>
+  <si>
+    <t>"2022-02-07"</t>
+  </si>
+  <si>
+    <t>Eleanor</t>
+  </si>
+  <si>
+    <t>Combs</t>
+  </si>
+  <si>
+    <t>0569477600</t>
+  </si>
+  <si>
+    <t>"2022-04-19"</t>
+  </si>
+  <si>
+    <t>"2022-06-04"</t>
+  </si>
+  <si>
+    <t>Rita</t>
+  </si>
+  <si>
+    <t>Deleon</t>
+  </si>
+  <si>
+    <t>0529123662</t>
+  </si>
+  <si>
+    <t>"2022-08-26"</t>
+  </si>
+  <si>
+    <t>"2022-09-15"</t>
+  </si>
+  <si>
+    <t>Jennifer</t>
+  </si>
+  <si>
+    <t>Petry</t>
+  </si>
+  <si>
+    <t>0556278176</t>
+  </si>
+  <si>
+    <t>"2022-12-29"</t>
+  </si>
+  <si>
+    <t>"2023-01-14"</t>
+  </si>
+  <si>
+    <t>Clinton</t>
+  </si>
+  <si>
+    <t>Ames</t>
+  </si>
+  <si>
+    <t>0568260815</t>
+  </si>
+  <si>
+    <t>"2022-03-11"</t>
+  </si>
+  <si>
+    <t>Roxana</t>
+  </si>
+  <si>
+    <t>Moore</t>
+  </si>
+  <si>
+    <t>0567253739</t>
+  </si>
+  <si>
+    <t>"2022-06-05"</t>
+  </si>
+  <si>
+    <t>"2022-07-04"</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Munoz</t>
+  </si>
+  <si>
+    <t>0503432446</t>
+  </si>
+  <si>
+    <t>"2022-12-06"</t>
+  </si>
+  <si>
+    <t>"2023-01-07"</t>
+  </si>
+  <si>
+    <t>Inez</t>
+  </si>
+  <si>
+    <t>Fisher</t>
+  </si>
+  <si>
+    <t>0557962103</t>
+  </si>
+  <si>
+    <t>"2022-02-17"</t>
+  </si>
+  <si>
+    <t>Patricia</t>
+  </si>
+  <si>
+    <t>Bell</t>
+  </si>
+  <si>
+    <t>0555005387</t>
+  </si>
+  <si>
+    <t>"2022-05-17"</t>
+  </si>
+  <si>
+    <t>"2022-05-27"</t>
+  </si>
+  <si>
+    <t>Hector</t>
+  </si>
+  <si>
+    <t>Thompson</t>
+  </si>
+  <si>
+    <t>0562659172</t>
+  </si>
+  <si>
+    <t>"2022-11-01"</t>
+  </si>
+  <si>
+    <t>Raymond</t>
+  </si>
+  <si>
+    <t>Ellison</t>
+  </si>
+  <si>
+    <t>0527876232</t>
+  </si>
+  <si>
+    <t>"2022-11-03"</t>
+  </si>
+  <si>
+    <t>"2022-11-26"</t>
+  </si>
+  <si>
+    <t>Joan</t>
+  </si>
+  <si>
+    <t>Barren</t>
+  </si>
+  <si>
+    <t>0526249666</t>
+  </si>
+  <si>
+    <t>"2022-06-17"</t>
+  </si>
+  <si>
+    <t>"2022-06-24"</t>
+  </si>
+  <si>
+    <t>Elias</t>
+  </si>
+  <si>
+    <t>Beasley</t>
+  </si>
+  <si>
+    <t>0568275471</t>
+  </si>
+  <si>
+    <t>"2022-05-18"</t>
+  </si>
+  <si>
+    <t>"2022-05-25"</t>
+  </si>
+  <si>
+    <t>Cornelia</t>
+  </si>
+  <si>
+    <t>Ryder</t>
+  </si>
+  <si>
+    <t>0558356440</t>
+  </si>
+  <si>
+    <t>"2022-07-09"</t>
+  </si>
+  <si>
+    <t>"2022-07-19"</t>
+  </si>
+  <si>
+    <t>Gary</t>
+  </si>
+  <si>
+    <t>Ramlall</t>
+  </si>
+  <si>
+    <t>0508872090</t>
+  </si>
+  <si>
+    <t>"2022-04-23"</t>
+  </si>
+  <si>
+    <t>"2022-05-30"</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+  <si>
+    <t>Baird</t>
+  </si>
+  <si>
+    <t>0504850709</t>
+  </si>
+  <si>
+    <t>"2022-05-28"</t>
+  </si>
+  <si>
+    <t>"2022-06-30"</t>
+  </si>
+  <si>
+    <t>Frances</t>
+  </si>
+  <si>
+    <t>Mullen</t>
+  </si>
+  <si>
+    <t>0507507858</t>
+  </si>
+  <si>
+    <t>"2022-05-09"</t>
+  </si>
+  <si>
+    <t>"2022-06-22"</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>Haines</t>
+  </si>
+  <si>
+    <t>0555823144</t>
+  </si>
+  <si>
+    <t>"2022-07-08"</t>
+  </si>
+  <si>
+    <t>"2022-08-21"</t>
+  </si>
+  <si>
+    <t>Jean</t>
+  </si>
+  <si>
+    <t>Boutte</t>
+  </si>
+  <si>
+    <t>0526659221</t>
+  </si>
+  <si>
+    <t>"2022-08-13"</t>
+  </si>
+  <si>
+    <t>"2022-10-02"</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Fahey</t>
+  </si>
+  <si>
+    <t>0524271660</t>
+  </si>
+  <si>
+    <t>"2022-04-26"</t>
+  </si>
+  <si>
+    <t>"2022-05-23"</t>
+  </si>
+  <si>
+    <t>Julio</t>
+  </si>
+  <si>
+    <t>Mansfield</t>
+  </si>
+  <si>
+    <t>0553586092</t>
+  </si>
+  <si>
+    <t>"2022-02-26"</t>
+  </si>
+  <si>
+    <t>"2022-03-06"</t>
+  </si>
+  <si>
+    <t>Brenda</t>
+  </si>
+  <si>
+    <t>Philip</t>
+  </si>
+  <si>
+    <t>0551984438</t>
+  </si>
+  <si>
+    <t>"2022-04-27"</t>
+  </si>
+  <si>
+    <t>Courtney</t>
+  </si>
+  <si>
+    <t>Livezey</t>
+  </si>
+  <si>
+    <t>0553787514</t>
+  </si>
+  <si>
+    <t>"2022-02-15"</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>Parks</t>
+  </si>
+  <si>
+    <t>0503116480</t>
+  </si>
+  <si>
+    <t>"2022-12-25"</t>
+  </si>
+  <si>
+    <t>"2023-01-25"</t>
+  </si>
+  <si>
+    <t>Sean</t>
+  </si>
+  <si>
+    <t>Corney</t>
+  </si>
+  <si>
+    <t>0526868890</t>
+  </si>
+  <si>
+    <t>"2022-02-01"</t>
+  </si>
+  <si>
+    <t>"2022-03-23"</t>
+  </si>
+  <si>
+    <t>Leslie</t>
+  </si>
+  <si>
+    <t>Petty</t>
+  </si>
+  <si>
+    <t>0564032420</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
+    <t>Huntsberger</t>
+  </si>
+  <si>
+    <t>0522862856</t>
+  </si>
+  <si>
+    <t>"2022-08-11"</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>Pkcode</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>Room Only</t>
+  </si>
+  <si>
+    <t>Bed and Breakfast</t>
+  </si>
+  <si>
+    <t>Full Board</t>
+  </si>
+  <si>
+    <t>People</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>Tourism</t>
+  </si>
+  <si>
+    <t>0503458712</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -462,32 +929,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="20"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <name val="Source Sans Pro"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -516,7 +966,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -527,22 +977,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -551,58 +986,18 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -613,23 +1008,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6208C8B2-A0E8-48EE-9AF6-CE4D667721E8}" name="Table1" displayName="Table1" ref="C1:J18" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="C1:J18" xr:uid="{0E06CA7E-EE15-4AA9-B5EA-80C8617C83AB}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{D6C3AF13-054B-4B4C-9346-6B8542FCA124}" name="NUMBER OF PEOPLE" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{85A0A675-F6E2-435C-896D-E2761F761C3B}" name="ROOM TYPE" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{D7EE9C97-FE2A-43CA-AD38-09B0FAB7A992}" name="PACKAGE DETAILS" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{F206DCE2-B6EB-40E2-B2BC-D3B8E70F3F93}" name="COST FOR ROOM PER NIGHT" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{7804A14C-8BE3-4AA6-9141-D943306BF568}" name="TOURISM" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{8C4293D2-1F2F-43A1-9D13-4D23AC5AEB69}" name="Column2" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{18D7058A-C89D-4BF2-9237-B349A67BBB94}" name="Column3" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{4EC74737-B6CF-4E12-95B1-ECA2A74F6188}" name="Column1" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -930,10 +1308,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{889E6D78-F85D-4EA3-8D28-8527B88D0B3A}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:J30"/>
+  <dimension ref="A2:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20:J21"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -965,7 +1343,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>4</v>
@@ -979,19 +1357,19 @@
     </row>
     <row r="6" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -1049,43 +1427,43 @@
     </row>
     <row r="12" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G13" s="1" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G14" s="1" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>16</v>
@@ -1097,21 +1475,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>107</v>
+      <c r="B20" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>16</v>
@@ -1120,7 +1498,7 @@
         <v>17</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>1</v>
@@ -1129,36 +1507,36 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -1178,96 +1556,99 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K30" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1277,12 +1658,1387 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBEDE8F0-24CC-4254-8BA2-591DF2EBDC13}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="23.28515625" defaultRowHeight="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" style="1"/>
+    <col min="2" max="2" width="46.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="43.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.85546875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="23.28515625" style="1"/>
+    <col min="9" max="9" width="40.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="46.5703125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="23.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1004648</v>
+      </c>
+      <c r="B2" s="1">
+        <v>12944</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1017095</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10435</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1083125</v>
+      </c>
+      <c r="B4" s="1">
+        <v>10862</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="1">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DC227AE-8071-4C2D-9E89-5D588AD3D26B}">
+  <dimension ref="A1:I42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="23.28515625" defaultRowHeight="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" style="1"/>
+    <col min="2" max="2" width="46.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26" style="1" customWidth="1"/>
+    <col min="6" max="6" width="39.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="33.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" style="1"/>
+    <col min="9" max="9" width="72" style="1" customWidth="1"/>
+    <col min="10" max="10" width="46.5703125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="23.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="D2" s="1">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1">
+        <v>108800</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="1">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>15195</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" s="1">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="1">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1">
+        <v>62249</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H4" s="1">
+        <v>7</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="1">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1">
+        <v>21414</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" s="1">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="1">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1">
+        <v>70339</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="1">
+        <v>10</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="1">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1">
+        <v>44595</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" s="1">
+        <v>9</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="1">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1">
+        <v>27869</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H8" s="1">
+        <v>8</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>62818</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="1">
+        <v>9</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1">
+        <v>36197</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H10" s="1">
+        <v>5</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="1">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1">
+        <v>41705</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H11" s="1">
+        <v>9</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>58349</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H12" s="1">
+        <v>8</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>9964</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H13" s="1">
+        <v>8</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>90540</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H14" s="1">
+        <v>9</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="1">
+        <v>10</v>
+      </c>
+      <c r="E15" s="1">
+        <v>17402</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H15" s="1">
+        <v>7</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1">
+        <v>72691</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H16" s="1">
+        <v>7</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17" s="1">
+        <v>4</v>
+      </c>
+      <c r="E17" s="1">
+        <v>98062</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H17" s="1">
+        <v>6</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18" s="1">
+        <v>4</v>
+      </c>
+      <c r="E18" s="1">
+        <v>69133</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H18" s="1">
+        <v>10</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D19" s="1">
+        <v>8</v>
+      </c>
+      <c r="E19" s="1">
+        <v>56582</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H19" s="1">
+        <v>9</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D20" s="1">
+        <v>5</v>
+      </c>
+      <c r="E20" s="1">
+        <v>29742</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H20" s="1">
+        <v>7</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D21" s="1">
+        <v>5</v>
+      </c>
+      <c r="E21" s="1">
+        <v>57859</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H21" s="1">
+        <v>10</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D22" s="1">
+        <v>10</v>
+      </c>
+      <c r="E22" s="1">
+        <v>76264</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H22" s="1">
+        <v>10</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D23" s="1">
+        <v>5</v>
+      </c>
+      <c r="E23" s="1">
+        <v>50139</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H23" s="1">
+        <v>5</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D24" s="1">
+        <v>5</v>
+      </c>
+      <c r="E24" s="1">
+        <v>60833</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H24" s="1">
+        <v>7</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D25" s="1">
+        <v>11</v>
+      </c>
+      <c r="E25" s="1">
+        <v>74247</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H25" s="1">
+        <v>8</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D26" s="1">
+        <v>12</v>
+      </c>
+      <c r="E26" s="1">
+        <v>83753</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H26" s="1">
+        <v>7</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D27" s="1">
+        <v>9</v>
+      </c>
+      <c r="E27" s="1">
+        <v>69748</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H27" s="1">
+        <v>7</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D28" s="1">
+        <v>4</v>
+      </c>
+      <c r="E28" s="1">
+        <v>28842</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H28" s="1">
+        <v>8</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D29" s="1">
+        <v>12</v>
+      </c>
+      <c r="E29" s="1">
+        <v>24015</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H29" s="1">
+        <v>5</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D30" s="1">
+        <v>6</v>
+      </c>
+      <c r="E30" s="1">
+        <v>89955</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H30" s="1">
+        <v>8</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D31" s="1">
+        <v>12</v>
+      </c>
+      <c r="E31" s="1">
+        <v>64659</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H31" s="1">
+        <v>10</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D32" s="1">
+        <v>10</v>
+      </c>
+      <c r="E32" s="1">
+        <v>55997</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H32" s="1">
+        <v>6</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D33" s="1">
+        <v>6</v>
+      </c>
+      <c r="E33" s="1">
+        <v>83451</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H33" s="1">
+        <v>8</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D34" s="1">
+        <v>6</v>
+      </c>
+      <c r="E34" s="1">
+        <v>43847</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H34" s="1">
+        <v>7</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D35" s="1">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1">
+        <v>55388</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="H35" s="1">
+        <v>5</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D36" s="1">
+        <v>6</v>
+      </c>
+      <c r="E36" s="1">
+        <v>78117</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H36" s="1">
+        <v>5</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D37" s="1">
+        <v>12</v>
+      </c>
+      <c r="E37" s="1">
+        <v>34452</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H37" s="1">
+        <v>10</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D38" s="1">
+        <v>10</v>
+      </c>
+      <c r="E38" s="1">
+        <v>94631</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H38" s="1">
+        <v>7</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D39" s="1">
+        <v>11</v>
+      </c>
+      <c r="E39" s="1">
+        <v>19687</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="H39" s="1">
+        <v>10</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D40" s="1">
+        <v>4</v>
+      </c>
+      <c r="E40" s="1">
+        <v>17690</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="H40" s="1">
+        <v>7</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D41" s="1">
+        <v>10</v>
+      </c>
+      <c r="E41" s="1">
+        <v>87782</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="H41" s="1">
+        <v>8</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D42" s="1">
+        <v>10</v>
+      </c>
+      <c r="E42" s="1">
+        <v>41627</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="H42" s="1">
+        <v>9</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1B0656-EFA8-4F9F-96C1-BC413AE34369}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.42578125" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1298,7 +3054,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
@@ -1321,7 +3077,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>64</v>
+        <v>37</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1335,7 +3094,10 @@
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>64</v>
+        <v>37</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1346,10 +3108,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>65</v>
+        <v>38</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1363,7 +3128,10 @@
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>65</v>
+        <v>38</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1377,7 +3145,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>66</v>
+        <v>39</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1388,10 +3159,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>66</v>
+        <v>39</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1405,7 +3179,10 @@
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>67</v>
+        <v>40</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1419,7 +3196,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>67</v>
+        <v>40</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1433,7 +3213,10 @@
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>64</v>
+        <v>37</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1444,10 +3227,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>64</v>
+        <v>37</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1461,7 +3247,10 @@
         <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>65</v>
+        <v>38</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1475,7 +3264,10 @@
         <v>5</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>65</v>
+        <v>38</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1486,10 +3278,13 @@
         <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>66</v>
+        <v>39</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1503,7 +3298,10 @@
         <v>5</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>66</v>
+        <v>39</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1517,10 +3315,13 @@
         <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>208</v>
       </c>
@@ -1531,10 +3332,13 @@
         <v>5</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>301</v>
       </c>
@@ -1545,10 +3349,13 @@
         <v>5</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>302</v>
       </c>
@@ -1556,13 +3363,16 @@
         <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>303</v>
       </c>
@@ -1573,10 +3383,13 @@
         <v>5</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>304</v>
       </c>
@@ -1587,10 +3400,13 @@
         <v>5</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>305</v>
       </c>
@@ -1598,13 +3414,16 @@
         <v>3</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>306</v>
       </c>
@@ -1615,10 +3434,13 @@
         <v>5</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>307</v>
       </c>
@@ -1626,13 +3448,16 @@
         <v>3</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>308</v>
       </c>
@@ -1643,7 +3468,10 @@
         <v>5</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>67</v>
+        <v>40</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -1652,13 +3480,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53653261-50F3-43C9-8887-6894B7A3AD60}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.28515625" defaultRowHeight="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1667,23 +3495,23 @@
     <col min="2" max="2" width="46.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="27.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="29.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.28515625" style="1" customWidth="1"/>
     <col min="7" max="8" width="23.28515625" style="1"/>
     <col min="9" max="9" width="40.42578125" style="1" customWidth="1"/>
     <col min="10" max="10" width="46.5703125" style="1" customWidth="1"/>
     <col min="11" max="16384" width="23.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>31</v>
@@ -1695,605 +3523,402 @@
         <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>10435</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1017095</v>
+      </c>
+      <c r="C2" s="1">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="I2" s="1">
+        <v>18050</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>10862</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1083125</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="1">
+        <v>8</v>
+      </c>
+      <c r="H3" s="1">
+        <v>302</v>
+      </c>
+      <c r="I3" s="1">
+        <v>9800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>12944</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1004648</v>
+      </c>
+      <c r="C4" s="1">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="1">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J3" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J4" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>10001</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1123456</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="13">
-        <v>44754</v>
-      </c>
-      <c r="F7" s="13">
-        <v>44757</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3</v>
-      </c>
-      <c r="H7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>839</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>10002</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1234567</v>
-      </c>
-      <c r="C8" s="1">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8" s="13">
-        <v>44744</v>
-      </c>
-      <c r="F8" s="13">
-        <v>44746</v>
-      </c>
-      <c r="G8" s="1">
-        <v>2</v>
-      </c>
-      <c r="H8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1">
-        <v>463</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>10115</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1203945</v>
-      </c>
-      <c r="C9" s="1">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" s="13">
-        <v>44848</v>
-      </c>
-      <c r="F9" s="13">
-        <v>44853</v>
-      </c>
-      <c r="G9" s="1">
-        <v>5</v>
-      </c>
-      <c r="H9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>794</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>10313</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1987654</v>
-      </c>
-      <c r="C10" s="1">
-        <v>12</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" s="13">
-        <v>44925</v>
-      </c>
-      <c r="F10" s="13">
-        <v>44929</v>
-      </c>
-      <c r="G10" s="1">
-        <v>4</v>
-      </c>
-      <c r="H10" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>632</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10932</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1322492</v>
-      </c>
-      <c r="C11" s="1">
-        <v>11</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11" s="13">
-        <v>44741</v>
-      </c>
-      <c r="F11" s="13">
-        <v>44749</v>
-      </c>
-      <c r="G11" s="1">
-        <v>8</v>
-      </c>
-      <c r="H11" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" s="1">
-        <v>104</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="I4" s="1">
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7455369D-7D5D-48E2-B2FB-2CDFC688C2A8}">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:J18"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC564246-391B-403A-8EE9-60E344130644}">
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" customWidth="1"/>
-    <col min="6" max="6" width="28.140625" customWidth="1"/>
-    <col min="7" max="7" width="84.42578125" customWidth="1"/>
-    <col min="8" max="8" width="30" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" customWidth="1"/>
-    <col min="10" max="10" width="25.42578125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="37.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="8">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="8">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E2" s="1">
+        <v>650</v>
+      </c>
+      <c r="F2" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E3" s="1">
+        <v>800</v>
+      </c>
+      <c r="F3" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1200</v>
+      </c>
+      <c r="F4" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="8">
-        <v>200</v>
-      </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="8">
+      <c r="D5" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E5" s="1">
+        <v>800</v>
+      </c>
+      <c r="F5" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="8">
-        <v>1</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="8">
-        <v>200</v>
-      </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="8">
-        <v>3</v>
-      </c>
-      <c r="C4" s="8">
-        <v>1</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="8">
-        <v>200</v>
-      </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="8">
+      <c r="C6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E6" s="1">
+        <v>950</v>
+      </c>
+      <c r="F6" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1350</v>
+      </c>
+      <c r="F7" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="8">
-        <v>2</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="8">
-        <v>400</v>
-      </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="8">
-        <v>5</v>
-      </c>
-      <c r="C6" s="8">
-        <v>2</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="8">
-        <v>400</v>
-      </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="8">
+      <c r="C8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E8" s="1">
+        <v>950</v>
+      </c>
+      <c r="F8" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1100</v>
+      </c>
+      <c r="F9" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1500</v>
+      </c>
+      <c r="F10" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
         <v>6</v>
       </c>
-      <c r="C7" s="8">
-        <v>2</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="8">
-        <v>400</v>
-      </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="8">
-        <v>7</v>
-      </c>
-      <c r="C8" s="8">
-        <v>4</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="8">
-        <v>800</v>
-      </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="8">
-        <v>8</v>
-      </c>
-      <c r="C9" s="8">
-        <v>4</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="8" t="s">
+      <c r="C11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="8">
-        <v>800</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="8">
-        <v>9</v>
-      </c>
-      <c r="C10" s="8">
-        <v>4</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="8">
-        <v>800</v>
-      </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="8">
-        <v>10</v>
-      </c>
-      <c r="C11" s="8">
+      <c r="D11" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1350</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
         <v>6</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="9">
+      <c r="C12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1500</v>
+      </c>
+      <c r="F12" s="1">
         <v>1200</v>
       </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="8">
-        <v>11</v>
-      </c>
-      <c r="C12" s="8">
+    </row>
+    <row r="13" spans="1:6" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
         <v>6</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="9">
+      <c r="C13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F13" s="1">
         <v>1200</v>
       </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="8">
-        <v>12</v>
-      </c>
-      <c r="C13" s="8">
-        <v>6</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="9">
-        <v>1200</v>
-      </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-    </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-    </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-    </row>
+    </row>
+    <row r="14" spans="1:6" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:6" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="1:6" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/Hotel.xlsx
+++ b/Hotel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gilch\Desktop\Dev Stuff\Hotel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2693D4-2B14-421E-8EF1-3E07A56E2543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B392A34E-E107-4EFB-A9BD-6CD347E2E371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4D62690F-D6D4-4B06-A157-2D41C267F4CA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{4D62690F-D6D4-4B06-A157-2D41C267F4CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="282">
   <si>
     <t>Hotel</t>
   </si>
@@ -261,13 +261,7 @@
     <t>"0567681598"</t>
   </si>
   <si>
-    <t>"2022-07-23"</t>
-  </si>
-  <si>
     <t>"2022-09-02"</t>
-  </si>
-  <si>
-    <t>"2022-07-31"</t>
   </si>
   <si>
     <t>"0507313342"</t>
@@ -1707,13 +1701,13 @@
         <v>12944</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>71</v>
@@ -1727,10 +1721,10 @@
         <v>10435</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>69</v>
@@ -1747,10 +1741,10 @@
         <v>10862</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>72</v>
@@ -1788,7 +1782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DC227AE-8071-4C2D-9E89-5D588AD3D26B}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -1844,7 +1838,7 @@
         <v>65</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D2" s="1">
         <v>9</v>
@@ -1867,13 +1861,13 @@
     </row>
     <row r="3" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -1882,27 +1876,27 @@
         <v>15195</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H3" s="1">
         <v>10</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>92</v>
       </c>
       <c r="D4" s="1">
         <v>7</v>
@@ -1911,27 +1905,27 @@
         <v>62249</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H4" s="1">
         <v>7</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="D5" s="1">
         <v>6</v>
@@ -1940,27 +1934,27 @@
         <v>21414</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H5" s="1">
         <v>10</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="D6" s="1">
         <v>7</v>
@@ -1969,27 +1963,27 @@
         <v>70339</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H6" s="1">
         <v>10</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="D7" s="1">
         <v>12</v>
@@ -1998,27 +1992,27 @@
         <v>44595</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H7" s="1">
         <v>9</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="D8" s="1">
         <v>12</v>
@@ -2027,27 +2021,27 @@
         <v>27869</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H8" s="1">
         <v>8</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -2056,7 +2050,7 @@
         <v>62818</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>66</v>
@@ -2065,18 +2059,18 @@
         <v>9</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="D10" s="1">
         <v>5</v>
@@ -2085,27 +2079,27 @@
         <v>36197</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H10" s="1">
         <v>5</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="D11" s="1">
         <v>10</v>
@@ -2114,27 +2108,27 @@
         <v>41705</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H11" s="1">
         <v>9</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
@@ -2143,27 +2137,27 @@
         <v>58349</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H12" s="1">
         <v>8</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="D13" s="1">
         <v>2</v>
@@ -2172,27 +2166,27 @@
         <v>9964</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H13" s="1">
         <v>8</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="D14" s="1">
         <v>2</v>
@@ -2201,27 +2195,27 @@
         <v>90540</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H14" s="1">
         <v>9</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="D15" s="1">
         <v>10</v>
@@ -2230,27 +2224,27 @@
         <v>17402</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H15" s="1">
         <v>7</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D16" s="1">
         <v>5</v>
@@ -2259,27 +2253,27 @@
         <v>72691</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H16" s="1">
         <v>7</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="D17" s="1">
         <v>4</v>
@@ -2288,27 +2282,27 @@
         <v>98062</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H17" s="1">
         <v>6</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="D18" s="1">
         <v>4</v>
@@ -2317,27 +2311,27 @@
         <v>69133</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H18" s="1">
         <v>10</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="D19" s="1">
         <v>8</v>
@@ -2346,27 +2340,27 @@
         <v>56582</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H19" s="1">
         <v>9</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="D20" s="1">
         <v>5</v>
@@ -2375,27 +2369,27 @@
         <v>29742</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H20" s="1">
         <v>7</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="D21" s="1">
         <v>5</v>
@@ -2404,27 +2398,27 @@
         <v>57859</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H21" s="1">
         <v>10</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="D22" s="1">
         <v>10</v>
@@ -2433,27 +2427,27 @@
         <v>76264</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H22" s="1">
         <v>10</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="D23" s="1">
         <v>5</v>
@@ -2462,27 +2456,27 @@
         <v>50139</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H23" s="1">
         <v>5</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="D24" s="1">
         <v>5</v>
@@ -2491,27 +2485,27 @@
         <v>60833</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H24" s="1">
         <v>7</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="D25" s="1">
         <v>11</v>
@@ -2520,27 +2514,27 @@
         <v>74247</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H25" s="1">
         <v>8</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="D26" s="1">
         <v>12</v>
@@ -2549,27 +2543,27 @@
         <v>83753</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H26" s="1">
         <v>7</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="D27" s="1">
         <v>9</v>
@@ -2578,27 +2572,27 @@
         <v>69748</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H27" s="1">
         <v>7</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="D28" s="1">
         <v>4</v>
@@ -2607,27 +2601,27 @@
         <v>28842</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H28" s="1">
         <v>8</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="D29" s="1">
         <v>12</v>
@@ -2636,27 +2630,27 @@
         <v>24015</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H29" s="1">
         <v>5</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="D30" s="1">
         <v>6</v>
@@ -2665,27 +2659,27 @@
         <v>89955</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H30" s="1">
         <v>8</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="D31" s="1">
         <v>12</v>
@@ -2694,27 +2688,27 @@
         <v>64659</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H31" s="1">
         <v>10</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="D32" s="1">
         <v>10</v>
@@ -2723,27 +2717,27 @@
         <v>55997</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H32" s="1">
         <v>6</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>230</v>
       </c>
       <c r="D33" s="1">
         <v>6</v>
@@ -2752,27 +2746,27 @@
         <v>83451</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H33" s="1">
         <v>8</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>235</v>
       </c>
       <c r="D34" s="1">
         <v>6</v>
@@ -2781,27 +2775,27 @@
         <v>43847</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H34" s="1">
         <v>7</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="D35" s="1">
         <v>3</v>
@@ -2810,27 +2804,27 @@
         <v>55388</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H35" s="1">
         <v>5</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="D36" s="1">
         <v>6</v>
@@ -2839,27 +2833,27 @@
         <v>78117</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H36" s="1">
         <v>5</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="D37" s="1">
         <v>12</v>
@@ -2868,27 +2862,27 @@
         <v>34452</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H37" s="1">
         <v>10</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="D38" s="1">
         <v>10</v>
@@ -2897,27 +2891,27 @@
         <v>94631</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H38" s="1">
         <v>7</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="D39" s="1">
         <v>11</v>
@@ -2926,27 +2920,27 @@
         <v>19687</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H39" s="1">
         <v>10</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="D40" s="1">
         <v>4</v>
@@ -2955,27 +2949,27 @@
         <v>17690</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H40" s="1">
         <v>7</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="D41" s="1">
         <v>10</v>
@@ -2984,27 +2978,27 @@
         <v>87782</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H41" s="1">
         <v>8</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>271</v>
       </c>
       <c r="D42" s="1">
         <v>10</v>
@@ -3013,16 +3007,16 @@
         <v>41627</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H42" s="1">
         <v>9</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -3080,7 +3074,7 @@
         <v>37</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3097,7 +3091,7 @@
         <v>37</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3114,7 +3108,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3131,7 +3125,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3148,7 +3142,7 @@
         <v>39</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3165,7 +3159,7 @@
         <v>39</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3182,7 +3176,7 @@
         <v>40</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3199,7 +3193,7 @@
         <v>40</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3216,7 +3210,7 @@
         <v>37</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3233,7 +3227,7 @@
         <v>37</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3250,7 +3244,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3267,7 +3261,7 @@
         <v>38</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3284,7 +3278,7 @@
         <v>39</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3301,7 +3295,7 @@
         <v>39</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3318,7 +3312,7 @@
         <v>40</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3335,7 +3329,7 @@
         <v>40</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3352,7 +3346,7 @@
         <v>37</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3369,7 +3363,7 @@
         <v>37</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3386,7 +3380,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3403,7 +3397,7 @@
         <v>38</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3420,7 +3414,7 @@
         <v>39</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3437,7 +3431,7 @@
         <v>39</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3454,7 +3448,7 @@
         <v>40</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3471,7 +3465,7 @@
         <v>40</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -3485,8 +3479,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.28515625" defaultRowHeight="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3546,7 +3540,7 @@
         <v>69</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>70</v>
@@ -3563,59 +3557,30 @@
     </row>
     <row r="3" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>10862</v>
+        <v>12944</v>
       </c>
       <c r="B3" s="1">
-        <v>1083125</v>
+        <v>1004648</v>
       </c>
       <c r="C3" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G3" s="1">
-        <v>8</v>
-      </c>
-      <c r="H3" s="1">
-        <v>302</v>
+        <v>10</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="I3" s="1">
-        <v>9800</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>12944</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1004648</v>
-      </c>
-      <c r="C4" s="1">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G4" s="1">
-        <v>10</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I4" s="1">
         <v>16200</v>
       </c>
     </row>
@@ -3656,22 +3621,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3685,7 +3650,7 @@
         <v>37</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E2" s="1">
         <v>650</v>
@@ -3705,7 +3670,7 @@
         <v>37</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E3" s="1">
         <v>800</v>
@@ -3725,7 +3690,7 @@
         <v>37</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E4" s="1">
         <v>1200</v>
@@ -3745,7 +3710,7 @@
         <v>38</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E5" s="1">
         <v>800</v>
@@ -3765,7 +3730,7 @@
         <v>38</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E6" s="1">
         <v>950</v>
@@ -3785,7 +3750,7 @@
         <v>38</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E7" s="1">
         <v>1350</v>
@@ -3805,7 +3770,7 @@
         <v>39</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E8" s="1">
         <v>950</v>
@@ -3825,7 +3790,7 @@
         <v>39</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E9" s="1">
         <v>1100</v>
@@ -3845,7 +3810,7 @@
         <v>39</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E10" s="1">
         <v>1500</v>
@@ -3865,7 +3830,7 @@
         <v>40</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E11" s="1">
         <v>1350</v>
@@ -3885,7 +3850,7 @@
         <v>40</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E12" s="1">
         <v>1500</v>
@@ -3905,7 +3870,7 @@
         <v>40</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E13" s="1">
         <v>2000</v>
